--- a/Book Cost.xlsx
+++ b/Book Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F53B329B-2780-4670-8D81-B97FE6C09F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE039FD-8DF6-48A1-A12C-D2092EB4DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6494CABB-A76D-4942-87DD-8B02021419AC}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.1200000000000001</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/Book Cost.xlsx
+++ b/Book Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE039FD-8DF6-48A1-A12C-D2092EB4DEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA2794-66C9-43C0-83AD-8169CA8DD24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6494CABB-A76D-4942-87DD-8B02021419AC}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -470,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.1000000000000001</v>
+        <v>1.1499999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:2">

--- a/Book Cost.xlsx
+++ b/Book Cost.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niroo\Desktop\Jupyter\Projets\Risk Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EA2794-66C9-43C0-83AD-8169CA8DD24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ADC72D-0FFD-46DC-A8C5-595C8A0BBC23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6494CABB-A76D-4942-87DD-8B02021419AC}"/>
   </bookViews>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
